--- a/sofaaudit/input/Apple-Small.xlsx
+++ b/sofaaudit/input/Apple-Small.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3880" yWindow="460" windowWidth="25120" windowHeight="14500" tabRatio="500"/>
+    <workbookView xWindow="4640" yWindow="0" windowWidth="25360" windowHeight="14720" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sales" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="50">
   <si>
     <t>HD</t>
   </si>
@@ -169,19 +169,21 @@
   </si>
   <si>
     <t>AR</t>
+  </si>
+  <si>
+    <t>0001_20120403_MOBZ_MEUPAIS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -193,8 +195,24 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -207,6 +225,12 @@
         <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -217,19 +241,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="8">
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
@@ -560,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE7"/>
+  <dimension ref="A1:AE19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC5" sqref="AC5"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -1220,6 +1257,1110 @@
         <v>39</v>
       </c>
     </row>
+    <row r="8" spans="1:31" ht="15.75" customHeight="1">
+      <c r="A8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1</v>
+      </c>
+      <c r="K8" s="3">
+        <v>75</v>
+      </c>
+      <c r="L8" s="4">
+        <v>41640</v>
+      </c>
+      <c r="M8" s="2">
+        <v>88001818440710</v>
+      </c>
+      <c r="N8" s="2">
+        <v>42099</v>
+      </c>
+      <c r="O8" s="2">
+        <v>2525775709</v>
+      </c>
+      <c r="P8" s="5">
+        <v>41717</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W8" s="2">
+        <v>104</v>
+      </c>
+      <c r="X8" s="2">
+        <v>819356907</v>
+      </c>
+      <c r="Y8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD8" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" ht="15.75" customHeight="1">
+      <c r="A9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="3">
+        <v>2</v>
+      </c>
+      <c r="K9" s="3">
+        <v>76</v>
+      </c>
+      <c r="L9" s="4">
+        <v>41671</v>
+      </c>
+      <c r="M9" s="2">
+        <v>88001818440711</v>
+      </c>
+      <c r="N9" s="2">
+        <v>42100</v>
+      </c>
+      <c r="O9" s="2">
+        <v>2525775710</v>
+      </c>
+      <c r="P9" s="5">
+        <v>41718</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W9" s="2">
+        <v>105</v>
+      </c>
+      <c r="X9" s="2">
+        <v>819356908</v>
+      </c>
+      <c r="Y9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD9" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" ht="15.75" customHeight="1">
+      <c r="A10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10" s="3">
+        <v>3</v>
+      </c>
+      <c r="K10" s="3">
+        <v>77</v>
+      </c>
+      <c r="L10" s="4">
+        <v>41699</v>
+      </c>
+      <c r="M10" s="2">
+        <v>88001818440712</v>
+      </c>
+      <c r="N10" s="2">
+        <v>42101</v>
+      </c>
+      <c r="O10" s="2">
+        <v>2525775711</v>
+      </c>
+      <c r="P10" s="5">
+        <v>41719</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W10" s="2">
+        <v>106</v>
+      </c>
+      <c r="X10" s="2">
+        <v>819356909</v>
+      </c>
+      <c r="Y10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD10" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" ht="15.75" customHeight="1">
+      <c r="A11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J11" s="3">
+        <v>4</v>
+      </c>
+      <c r="K11" s="3">
+        <v>78</v>
+      </c>
+      <c r="L11" s="4">
+        <v>41730</v>
+      </c>
+      <c r="M11" s="2">
+        <v>88001818440713</v>
+      </c>
+      <c r="N11" s="2">
+        <v>42102</v>
+      </c>
+      <c r="O11" s="2">
+        <v>2525775712</v>
+      </c>
+      <c r="P11" s="5">
+        <v>41720</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="V11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W11" s="2">
+        <v>107</v>
+      </c>
+      <c r="X11" s="2">
+        <v>819356910</v>
+      </c>
+      <c r="Y11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD11" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" ht="15.75" customHeight="1">
+      <c r="A12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J12" s="3">
+        <v>5</v>
+      </c>
+      <c r="K12" s="3">
+        <v>79</v>
+      </c>
+      <c r="L12" s="4">
+        <v>41760</v>
+      </c>
+      <c r="M12" s="2">
+        <v>88001818440714</v>
+      </c>
+      <c r="N12" s="2">
+        <v>42103</v>
+      </c>
+      <c r="O12" s="2">
+        <v>2525775713</v>
+      </c>
+      <c r="P12" s="5">
+        <v>41721</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="V12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W12" s="2">
+        <v>108</v>
+      </c>
+      <c r="X12" s="2">
+        <v>819356911</v>
+      </c>
+      <c r="Y12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD12" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" ht="15.75" customHeight="1">
+      <c r="A13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J13" s="3">
+        <v>6</v>
+      </c>
+      <c r="K13" s="3">
+        <v>80</v>
+      </c>
+      <c r="L13" s="4">
+        <v>41791</v>
+      </c>
+      <c r="M13" s="2">
+        <v>88001818440715</v>
+      </c>
+      <c r="N13" s="2">
+        <v>42104</v>
+      </c>
+      <c r="O13" s="2">
+        <v>2525775714</v>
+      </c>
+      <c r="P13" s="5">
+        <v>41722</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="V13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W13" s="2">
+        <v>109</v>
+      </c>
+      <c r="X13" s="2">
+        <v>819356912</v>
+      </c>
+      <c r="Y13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD13" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" ht="15.75" customHeight="1">
+      <c r="A14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J14" s="3">
+        <v>7</v>
+      </c>
+      <c r="K14" s="3">
+        <v>81</v>
+      </c>
+      <c r="L14" s="4">
+        <v>41821</v>
+      </c>
+      <c r="M14" s="2">
+        <v>88001818440716</v>
+      </c>
+      <c r="N14" s="2">
+        <v>42105</v>
+      </c>
+      <c r="O14" s="2">
+        <v>2525775715</v>
+      </c>
+      <c r="P14" s="5">
+        <v>41723</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="V14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W14" s="2">
+        <v>110</v>
+      </c>
+      <c r="X14" s="2">
+        <v>819356913</v>
+      </c>
+      <c r="Y14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD14" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" ht="15.75" customHeight="1">
+      <c r="A15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J15" s="3">
+        <v>8</v>
+      </c>
+      <c r="K15" s="3">
+        <v>82</v>
+      </c>
+      <c r="L15" s="4">
+        <v>41852</v>
+      </c>
+      <c r="M15" s="2">
+        <v>88001818440717</v>
+      </c>
+      <c r="N15" s="2">
+        <v>42106</v>
+      </c>
+      <c r="O15" s="2">
+        <v>2525775716</v>
+      </c>
+      <c r="P15" s="5">
+        <v>41724</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="V15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W15" s="2">
+        <v>111</v>
+      </c>
+      <c r="X15" s="2">
+        <v>819356914</v>
+      </c>
+      <c r="Y15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD15" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" ht="15.75" customHeight="1">
+      <c r="A16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J16" s="3">
+        <v>9</v>
+      </c>
+      <c r="K16" s="3">
+        <v>83</v>
+      </c>
+      <c r="L16" s="4">
+        <v>41883</v>
+      </c>
+      <c r="M16" s="2">
+        <v>88001818440718</v>
+      </c>
+      <c r="N16" s="2">
+        <v>42107</v>
+      </c>
+      <c r="O16" s="2">
+        <v>2525775717</v>
+      </c>
+      <c r="P16" s="5">
+        <v>41725</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="V16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W16" s="2">
+        <v>112</v>
+      </c>
+      <c r="X16" s="2">
+        <v>819356915</v>
+      </c>
+      <c r="Y16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD16" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J17" s="3">
+        <v>10</v>
+      </c>
+      <c r="K17" s="3">
+        <v>84</v>
+      </c>
+      <c r="L17" s="4">
+        <v>41913</v>
+      </c>
+      <c r="M17" s="2">
+        <v>88001818440719</v>
+      </c>
+      <c r="N17" s="2">
+        <v>42108</v>
+      </c>
+      <c r="O17" s="2">
+        <v>2525775718</v>
+      </c>
+      <c r="P17" s="5">
+        <v>41726</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="V17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W17" s="2">
+        <v>113</v>
+      </c>
+      <c r="X17" s="2">
+        <v>819356916</v>
+      </c>
+      <c r="Y17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD17" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J18" s="3">
+        <v>11</v>
+      </c>
+      <c r="K18" s="3">
+        <v>85</v>
+      </c>
+      <c r="L18" s="4">
+        <v>41944</v>
+      </c>
+      <c r="M18" s="2">
+        <v>88001818440720</v>
+      </c>
+      <c r="N18" s="2">
+        <v>42109</v>
+      </c>
+      <c r="O18" s="2">
+        <v>2525775719</v>
+      </c>
+      <c r="P18" s="5">
+        <v>41727</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="V18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W18" s="2">
+        <v>114</v>
+      </c>
+      <c r="X18" s="2">
+        <v>819356917</v>
+      </c>
+      <c r="Y18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD18" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J19" s="3">
+        <v>12</v>
+      </c>
+      <c r="K19" s="3">
+        <v>86</v>
+      </c>
+      <c r="L19" s="4">
+        <v>41974</v>
+      </c>
+      <c r="M19" s="2">
+        <v>88001818440721</v>
+      </c>
+      <c r="N19" s="2">
+        <v>42110</v>
+      </c>
+      <c r="O19" s="2">
+        <v>2525775720</v>
+      </c>
+      <c r="P19" s="5">
+        <v>41728</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="T19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="V19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W19" s="2">
+        <v>115</v>
+      </c>
+      <c r="X19" s="2">
+        <v>819356918</v>
+      </c>
+      <c r="Y19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD19" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
